--- a/data/trans_orig/P52_1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P52_1-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>81178</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68789</v>
+        <v>68483</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93860</v>
+        <v>94050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5256767629127053</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4454506331880678</v>
+        <v>0.4434727992848685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6078055205832895</v>
+        <v>0.6090302952858238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -763,19 +763,19 @@
         <v>40556</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31840</v>
+        <v>31966</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47640</v>
+        <v>48295</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6402456572140456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5026397779385404</v>
+        <v>0.5046280540501955</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.752072854844444</v>
+        <v>0.7624108747110468</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -784,19 +784,19 @@
         <v>121733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105667</v>
+        <v>107100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137244</v>
+        <v>136597</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5590025776631808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4852257807073631</v>
+        <v>0.4918035463376326</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6302281957907774</v>
+        <v>0.6272557503779764</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>3868</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9556</v>
+        <v>9101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02504962222182543</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005967367034964116</v>
+        <v>0.005833705905330756</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06187997803074002</v>
+        <v>0.05893216897392222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8351</v>
+        <v>7615</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03348276093089086</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1318370665710502</v>
+        <v>0.1202088152163681</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -855,19 +855,19 @@
         <v>5989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13253</v>
+        <v>12534</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02750265469715143</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009588563642893679</v>
+        <v>0.009571571888753235</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06086032926911285</v>
+        <v>0.0575565738275141</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>4286</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10099</v>
+        <v>10823</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02775269769276104</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006353477258002725</v>
+        <v>0.006421241945152639</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06539616079566572</v>
+        <v>0.07008787099824612</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6812</v>
+        <v>6802</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03342251276016953</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1075344838322151</v>
+        <v>0.1073812246782229</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -926,19 +926,19 @@
         <v>6403</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2328</v>
+        <v>2795</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13481</v>
+        <v>13511</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02940193423081237</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0106887334676112</v>
+        <v>0.01283304092247527</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.061904931129598</v>
+        <v>0.06204415683092019</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>65093</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51678</v>
+        <v>52682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>76839</v>
+        <v>77665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4215209171727083</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3346446890441337</v>
+        <v>0.3411500091107885</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4975808751818279</v>
+        <v>0.5029309653738582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -976,19 +976,19 @@
         <v>18551</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11619</v>
+        <v>11338</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27195</v>
+        <v>26527</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2928490690948941</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1834204439082596</v>
+        <v>0.178992939104589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4293082427771111</v>
+        <v>0.4187651702527944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -997,19 +997,19 @@
         <v>83644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69053</v>
+        <v>68339</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99407</v>
+        <v>98254</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3840928334088553</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3170910255997052</v>
+        <v>0.3138160702750386</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.456478393327018</v>
+        <v>0.4511861626021597</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>101428</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87749</v>
+        <v>87725</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>114353</v>
+        <v>114722</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6216615646170357</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5378216244309806</v>
+        <v>0.5376749572468781</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7008783811161313</v>
+        <v>0.7031393934262804</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -1122,19 +1122,19 @@
         <v>50289</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41501</v>
+        <v>41723</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>58138</v>
+        <v>57873</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6701183391395141</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5530112906710687</v>
+        <v>0.5559755009093114</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7747117108252337</v>
+        <v>0.7711761900083587</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>141</v>
@@ -1143,19 +1143,19 @@
         <v>151717</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>136519</v>
+        <v>136335</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>167103</v>
+        <v>166917</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6369277043489929</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5731237833144587</v>
+        <v>0.5723504332420964</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7015177362968454</v>
+        <v>0.7007384931260401</v>
       </c>
     </row>
     <row r="10">
@@ -1175,16 +1175,16 @@
         <v>918</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7577</v>
+        <v>7960</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01751280902694785</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005626458358240391</v>
+        <v>0.00562906144574389</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04644121429606743</v>
+        <v>0.04878558896077539</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1193,19 +1193,19 @@
         <v>3756</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10570</v>
+        <v>10245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05004992089317824</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01365737859971338</v>
+        <v>0.0136916071990487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1408466164031481</v>
+        <v>0.1365119053610132</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1214,19 +1214,19 @@
         <v>6613</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2632</v>
+        <v>2060</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13364</v>
+        <v>13427</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02776351393083649</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01104754401411204</v>
+        <v>0.008647725978104211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05610542386885387</v>
+        <v>0.05636923090383826</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>6583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1974</v>
+        <v>2264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15483</v>
+        <v>16244</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04034854145388149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01209599138334414</v>
+        <v>0.01387674628312379</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09489887040880808</v>
+        <v>0.09955993560704655</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7129</v>
+        <v>7161</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02782232041058219</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0949961783544854</v>
+        <v>0.0954210799195178</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1285,19 +1285,19 @@
         <v>8671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3387</v>
+        <v>3732</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18589</v>
+        <v>17741</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0364021987052183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01421812756633997</v>
+        <v>0.01566792776058495</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07803684992393302</v>
+        <v>0.07447825427337428</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         <v>39759</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65280</v>
+        <v>65709</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3204770849021349</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2436862990245195</v>
+        <v>0.2436825650206633</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4001040287530221</v>
+        <v>0.4027330224683934</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1335,19 +1335,19 @@
         <v>18912</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12403</v>
+        <v>12192</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26725</v>
+        <v>26887</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2520094195567255</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1652700240176088</v>
+        <v>0.1624670623893842</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3561231210908864</v>
+        <v>0.3582740747688057</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -1356,19 +1356,19 @@
         <v>71200</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>57461</v>
+        <v>57757</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>86787</v>
+        <v>86370</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2989065830149523</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2412282083350622</v>
+        <v>0.2424689898265785</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3643408329053256</v>
+        <v>0.3625910326560688</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>72117</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60410</v>
+        <v>60226</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85170</v>
+        <v>87604</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4579982344808073</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3836468516762278</v>
+        <v>0.3824813471961209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5408942759160865</v>
+        <v>0.5563506446521878</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1481,19 +1481,19 @@
         <v>27482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20643</v>
+        <v>20070</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35500</v>
+        <v>34465</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.515999192868607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3875978357925209</v>
+        <v>0.3768266279023967</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6665457195628537</v>
+        <v>0.647108055148078</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -1502,19 +1502,19 @@
         <v>99599</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>83790</v>
+        <v>84666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113087</v>
+        <v>113611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.472657940098929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3976350735325986</v>
+        <v>0.4017912030708499</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5366625677539334</v>
+        <v>0.5391507007646519</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>15613</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8657</v>
+        <v>8466</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24516</v>
+        <v>25865</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09915106856294761</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05497673158638483</v>
+        <v>0.05376766085048992</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1556952818672898</v>
+        <v>0.1642617795604649</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>2944</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8843</v>
+        <v>7804</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05527831375905166</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01712703126342981</v>
+        <v>0.01716561686406836</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1660382122000948</v>
+        <v>0.146524970420555</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>17</v>
@@ -1573,19 +1573,19 @@
         <v>18557</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10904</v>
+        <v>11435</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>28018</v>
+        <v>29865</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08806225748191494</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05174440664492326</v>
+        <v>0.05426469074085633</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1329597188654039</v>
+        <v>0.141728806952255</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>6183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2060</v>
+        <v>2095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14149</v>
+        <v>12799</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03926826775167787</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01308438336148631</v>
+        <v>0.01330655008273557</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08985757364227509</v>
+        <v>0.08128482920118073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6403</v>
+        <v>6059</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0372053442459764</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.120222168917229</v>
+        <v>0.1137605912991414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1644,19 +1644,19 @@
         <v>8165</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3082</v>
+        <v>3192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16597</v>
+        <v>17266</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03874686513787816</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01462474945124119</v>
+        <v>0.01514882280171656</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07876191593339327</v>
+        <v>0.08193813193140009</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>63549</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52379</v>
+        <v>50654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76978</v>
+        <v>75354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4035824292045672</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3326450610956979</v>
+        <v>0.3216923685278687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4888672585106835</v>
+        <v>0.4785527423101406</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1694,19 +1694,19 @@
         <v>20852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13994</v>
+        <v>14086</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28259</v>
+        <v>28560</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.391517149126365</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2627474019308779</v>
+        <v>0.2644820899780194</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5305917849342374</v>
+        <v>0.5362463414192569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>79</v>
@@ -1715,19 +1715,19 @@
         <v>84401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>71659</v>
+        <v>70481</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103330</v>
+        <v>100639</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4005329372812779</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3400640168612708</v>
+        <v>0.3344749139927155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4903605794995167</v>
+        <v>0.4775918788633217</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>76177</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62964</v>
+        <v>63528</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88546</v>
+        <v>88823</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5391065359275996</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4455976783153163</v>
+        <v>0.4495836714987155</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6266388802546965</v>
+        <v>0.6286020599396208</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -1840,19 +1840,19 @@
         <v>29175</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21821</v>
+        <v>22179</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35933</v>
+        <v>35736</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6103692601748599</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.456520313580328</v>
+        <v>0.4639982608994458</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7517478725088571</v>
+        <v>0.7476225312935094</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -1861,19 +1861,19 @@
         <v>105352</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91198</v>
+        <v>89670</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120259</v>
+        <v>117801</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5571194661753799</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4822681719833941</v>
+        <v>0.4741891590835555</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6359461954453028</v>
+        <v>0.6229511596629259</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>3916</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>963</v>
+        <v>989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8920</v>
+        <v>9071</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0277126486946119</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006811716176240647</v>
+        <v>0.007001378627897408</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0631283907468955</v>
+        <v>0.06419784016903138</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7353</v>
+        <v>6647</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04636158600110264</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1538330761982396</v>
+        <v>0.1390552798579668</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1932,19 +1932,19 @@
         <v>6132</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2453</v>
+        <v>2182</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13041</v>
+        <v>12579</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0324265017004484</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01297415634093818</v>
+        <v>0.01154113110761342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06896387350625952</v>
+        <v>0.06651817165411313</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>3107</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8416</v>
+        <v>9763</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02199090192923654</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00621054125057546</v>
+        <v>0.00631622498805344</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.059561223229762</v>
+        <v>0.06909561959091708</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8958</v>
+        <v>8995</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0400869330534805</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1874083583667991</v>
+        <v>0.188179045555339</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -2003,19 +2003,19 @@
         <v>5023</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1843</v>
+        <v>1816</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14678</v>
+        <v>13365</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02656499799202072</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.009744255761839746</v>
+        <v>0.009602513849599014</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07761789099309084</v>
+        <v>0.0706751234955299</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>58102</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44978</v>
+        <v>46443</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70496</v>
+        <v>70805</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.411189913448552</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3183064145809708</v>
+        <v>0.3286783256532943</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4988968116147154</v>
+        <v>0.5010897223370534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2053,19 +2053,19 @@
         <v>14492</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8205</v>
+        <v>8983</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21337</v>
+        <v>21298</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3031822207705569</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1716599518385305</v>
+        <v>0.1879226076315808</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4463914536193847</v>
+        <v>0.4455661209362097</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -2074,19 +2074,19 @@
         <v>72594</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59723</v>
+        <v>59677</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87027</v>
+        <v>87318</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.383889034132151</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3158254335589962</v>
+        <v>0.3155793905412517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4602145206489763</v>
+        <v>0.4617512629478014</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>330901</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>304267</v>
+        <v>303683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>356967</v>
+        <v>355511</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5368741428274586</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4936605395181886</v>
+        <v>0.4927137416812959</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5791647788498181</v>
+        <v>0.5768022258347828</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>139</v>
@@ -2199,19 +2199,19 @@
         <v>147502</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>131007</v>
+        <v>132774</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>162909</v>
+        <v>162079</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6160081572795739</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5471215537921429</v>
+        <v>0.5544983702280735</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6803535270254156</v>
+        <v>0.6768872273315808</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>450</v>
@@ -2220,19 +2220,19 @@
         <v>478403</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>447132</v>
+        <v>446576</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>506805</v>
+        <v>505226</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5590155373606236</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5224746914670633</v>
+        <v>0.5218252004826264</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5922033220537327</v>
+        <v>0.5903582886281763</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>26254</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16769</v>
+        <v>17436</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38179</v>
+        <v>37556</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04259622218384059</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02720738018361315</v>
+        <v>0.0282887950941431</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06194331456452187</v>
+        <v>0.06093270703958122</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2270,19 +2270,19 @@
         <v>11037</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5799</v>
+        <v>5202</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20144</v>
+        <v>19469</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04609384115404721</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02421777416034232</v>
+        <v>0.02172376387047794</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08412658253820431</v>
+        <v>0.08130927052199108</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>35</v>
@@ -2291,19 +2291,19 @@
         <v>37291</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>25590</v>
+        <v>25333</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50557</v>
+        <v>51838</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0435748425922983</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02990234958215078</v>
+        <v>0.02960199269673875</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0590757516424651</v>
+        <v>0.06057255018510227</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>20160</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12512</v>
+        <v>12257</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33901</v>
+        <v>32173</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03270804656016632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02030076768564014</v>
+        <v>0.01988709218773724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05500291943021638</v>
+        <v>0.0522001192619849</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2341,19 +2341,19 @@
         <v>8103</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3158</v>
+        <v>3310</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16090</v>
+        <v>17908</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03383913727159632</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01318947329874973</v>
+        <v>0.01382541670051328</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06719684385945043</v>
+        <v>0.07478668681639276</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2362,19 +2362,19 @@
         <v>28262</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>18518</v>
+        <v>17754</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41589</v>
+        <v>41088</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03302452141447469</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02163776686273422</v>
+        <v>0.0207457620173287</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04859709869699592</v>
+        <v>0.0480108778255834</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>239033</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>213783</v>
+        <v>214212</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>263570</v>
+        <v>264590</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3878215884285345</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3468539734483497</v>
+        <v>0.3475510347531452</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4276324178562976</v>
+        <v>0.4292866522969163</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>69</v>
@@ -2412,19 +2412,19 @@
         <v>72806</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>58345</v>
+        <v>59585</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>87628</v>
+        <v>86835</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3040588642947826</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2436631559866707</v>
+        <v>0.2488413576107985</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.365957505401326</v>
+        <v>0.3626446060123799</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>293</v>
@@ -2433,19 +2433,19 @@
         <v>311839</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>284887</v>
+        <v>284323</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>340045</v>
+        <v>341559</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3643850986326035</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3328916568873866</v>
+        <v>0.3322320348543717</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3973432060817041</v>
+        <v>0.3991123813648795</v>
       </c>
     </row>
     <row r="28">
@@ -2777,19 +2777,19 @@
         <v>98779</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83459</v>
+        <v>83592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113429</v>
+        <v>114430</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4410526418204386</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3726458798214849</v>
+        <v>0.373243411034413</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5064665505807758</v>
+        <v>0.5109349538320941</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -2798,19 +2798,19 @@
         <v>44320</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34965</v>
+        <v>34871</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53339</v>
+        <v>53629</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4695951206773169</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3704762051192926</v>
+        <v>0.3694772505230559</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5651624438761946</v>
+        <v>0.5682270994835944</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -2819,19 +2819,19 @@
         <v>143098</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124543</v>
+        <v>126188</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161720</v>
+        <v>162321</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4495146687559032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3912255737431206</v>
+        <v>0.3963932309034114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.508009803590507</v>
+        <v>0.5098982118452835</v>
       </c>
     </row>
     <row r="5">
@@ -2851,16 +2851,16 @@
         <v>8547</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24351</v>
+        <v>23319</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06682378642122165</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03816352753380343</v>
+        <v>0.0381629029364456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1087283329416907</v>
+        <v>0.1041217215237341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -2869,19 +2869,19 @@
         <v>5731</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12987</v>
+        <v>13331</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0607248625870719</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02064207519907239</v>
+        <v>0.02066784495365069</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1376024709218877</v>
+        <v>0.1412526923049743</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -2890,19 +2890,19 @@
         <v>20697</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12490</v>
+        <v>12540</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31416</v>
+        <v>31360</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06501563030343283</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03923634228499408</v>
+        <v>0.03939161517935286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09868642146956268</v>
+        <v>0.09851196682380871</v>
       </c>
     </row>
     <row r="6">
@@ -2919,19 +2919,19 @@
         <v>5478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2012</v>
+        <v>1878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12726</v>
+        <v>11736</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0244607328842551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008983014679136142</v>
+        <v>0.008387061217847701</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05682089385457473</v>
+        <v>0.05240002810035797</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5452</v>
+        <v>5387</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01149373312430543</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05777125934368903</v>
+        <v>0.05707386913313835</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -2961,19 +2961,19 @@
         <v>6563</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2591</v>
+        <v>2857</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14850</v>
+        <v>13978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02061638909789138</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008140274494210439</v>
+        <v>0.008974408561394998</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04664872395366049</v>
+        <v>0.04391053749408542</v>
       </c>
     </row>
     <row r="7">
@@ -2990,19 +2990,19 @@
         <v>104739</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>90081</v>
+        <v>89328</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120897</v>
+        <v>120337</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4676628388740847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4022149750898381</v>
+        <v>0.3988532684736016</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5398123921413618</v>
+        <v>0.5373084951628709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3011,19 +3011,19 @@
         <v>43243</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33858</v>
+        <v>34005</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52998</v>
+        <v>53620</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4581862836113058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3587476037384319</v>
+        <v>0.3603039909750438</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5615432972098315</v>
+        <v>0.5681342119853584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>141</v>
@@ -3032,19 +3032,19 @@
         <v>147981</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130286</v>
+        <v>129875</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166368</v>
+        <v>166561</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4648533118427726</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4092661669587874</v>
+        <v>0.4079744196757625</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.522611104481451</v>
+        <v>0.5232172025705585</v>
       </c>
     </row>
     <row r="8">
@@ -3136,19 +3136,19 @@
         <v>82531</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68577</v>
+        <v>67401</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>96283</v>
+        <v>96792</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3893023464795016</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3234808180965377</v>
+        <v>0.3179354751328746</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4541732368875221</v>
+        <v>0.456574745514327</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>51</v>
@@ -3157,19 +3157,19 @@
         <v>52720</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>42308</v>
+        <v>42328</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61804</v>
+        <v>62525</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.538825549703471</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4324034545904989</v>
+        <v>0.4326105920714537</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6316627278396181</v>
+        <v>0.6390361663651704</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>130</v>
@@ -3178,19 +3178,19 @@
         <v>135251</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>117903</v>
+        <v>118250</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>153691</v>
+        <v>153853</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4365195126369181</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3805313421335481</v>
+        <v>0.3816500177701335</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.49603355849965</v>
+        <v>0.4965571663540928</v>
       </c>
     </row>
     <row r="10">
@@ -3207,19 +3207,19 @@
         <v>13239</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7393</v>
+        <v>7301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21990</v>
+        <v>21748</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06244814271422051</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03487480451327445</v>
+        <v>0.03443740920137975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1037277749415086</v>
+        <v>0.1025856867433097</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3228,19 +3228,19 @@
         <v>4898</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1078</v>
+        <v>1859</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11450</v>
+        <v>11646</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05005664821984932</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01102269829382673</v>
+        <v>0.01900043020196858</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1170292633995129</v>
+        <v>0.1190272970805722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -3249,19 +3249,19 @@
         <v>18136</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11058</v>
+        <v>10584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28324</v>
+        <v>27987</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05853509616449516</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03568791561667419</v>
+        <v>0.03416000061192815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09141672414518613</v>
+        <v>0.09032915144384394</v>
       </c>
     </row>
     <row r="11">
@@ -3278,19 +3278,19 @@
         <v>8280</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3301</v>
+        <v>3939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16186</v>
+        <v>16871</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0390555629204999</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01557267761534884</v>
+        <v>0.01858184016806652</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07635005372554665</v>
+        <v>0.07958366330802512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -3299,19 +3299,19 @@
         <v>3761</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8610</v>
+        <v>8607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03843789949242568</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00956488789870647</v>
+        <v>0.009771189524971103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08799955547644177</v>
+        <v>0.08796693164233117</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -3320,19 +3320,19 @@
         <v>12041</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6047</v>
+        <v>6751</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20075</v>
+        <v>21187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03886051415158705</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01951710350545501</v>
+        <v>0.02178825891229159</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06479128221157977</v>
+        <v>0.06838131092916458</v>
       </c>
     </row>
     <row r="12">
@@ -3349,19 +3349,19 @@
         <v>107948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>93228</v>
+        <v>92859</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>122175</v>
+        <v>123701</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.509193947885778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.439759841172323</v>
+        <v>0.4380218687280309</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.576306163874852</v>
+        <v>0.583503327236318</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -3370,19 +3370,19 @@
         <v>36464</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27849</v>
+        <v>27038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46443</v>
+        <v>46405</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.372679902584254</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2846266189790603</v>
+        <v>0.2763378701345643</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4746669834580253</v>
+        <v>0.4742826634384071</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>135</v>
@@ -3391,19 +3391,19 @@
         <v>144411</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>126041</v>
+        <v>127163</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>161888</v>
+        <v>162643</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4660848770469997</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4067946623818193</v>
+        <v>0.4104168467928009</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5224906796582408</v>
+        <v>0.5249283426267659</v>
       </c>
     </row>
     <row r="13">
@@ -3495,19 +3495,19 @@
         <v>55736</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44732</v>
+        <v>43579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70014</v>
+        <v>68669</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3361102519025079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.269751716679441</v>
+        <v>0.2627975397997881</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4222086787484267</v>
+        <v>0.4141004787358782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -3516,19 +3516,19 @@
         <v>35499</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27089</v>
+        <v>27573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44505</v>
+        <v>43738</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4621524769073276</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.352655985307218</v>
+        <v>0.358959274500721</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5793966457797224</v>
+        <v>0.5694034748311396</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>87</v>
@@ -3537,19 +3537,19 @@
         <v>91236</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76250</v>
+        <v>75838</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107730</v>
+        <v>108008</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3760118487393806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3142499789414303</v>
+        <v>0.3125523388673098</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4439901508289272</v>
+        <v>0.4451383063583997</v>
       </c>
     </row>
     <row r="15">
@@ -3566,19 +3566,19 @@
         <v>6280</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2448</v>
+        <v>2378</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12667</v>
+        <v>13473</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03786908575477842</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01476292311475386</v>
+        <v>0.01434105714631749</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07638869405228406</v>
+        <v>0.08124465777319242</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -3587,19 +3587,19 @@
         <v>3740</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11085</v>
+        <v>9787</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04869232283572869</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01378632909687559</v>
+        <v>0.01393694282684003</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1443144697244836</v>
+        <v>0.1274150435679073</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -3608,19 +3608,19 @@
         <v>10020</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4900</v>
+        <v>4829</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17747</v>
+        <v>18569</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04129543309557992</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02019345027045668</v>
+        <v>0.01990355682826079</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07314234367431369</v>
+        <v>0.07652826810226299</v>
       </c>
     </row>
     <row r="16">
@@ -3637,19 +3637,19 @@
         <v>7939</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3243</v>
+        <v>3889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15456</v>
+        <v>15043</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04787340809813705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01955772502397084</v>
+        <v>0.02345423532800272</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0932076718608594</v>
+        <v>0.09071557778280297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3658,19 +3658,19 @@
         <v>3024</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>933</v>
+        <v>944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8213</v>
+        <v>9022</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03936921643467808</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01214362826911274</v>
+        <v>0.01228424215715426</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1069168947928718</v>
+        <v>0.1174576424236553</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3679,19 +3679,19 @@
         <v>10963</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5358</v>
+        <v>5339</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19242</v>
+        <v>18850</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04518120850259787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02208187575939165</v>
+        <v>0.02200522158655123</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07930318541736113</v>
+        <v>0.07768609246619067</v>
       </c>
     </row>
     <row r="17">
@@ -3708,19 +3708,19 @@
         <v>95872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80774</v>
+        <v>81449</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108774</v>
+        <v>107374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5781472542445766</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.48709853563657</v>
+        <v>0.4911665569044927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6559502340403364</v>
+        <v>0.6475041362873311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -3729,19 +3729,19 @@
         <v>34549</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26225</v>
+        <v>26349</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44019</v>
+        <v>43257</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4497859838222656</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3414088818425051</v>
+        <v>0.3430337103679265</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5730724368512188</v>
+        <v>0.5631411345546871</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>122</v>
@@ -3750,19 +3750,19 @@
         <v>130422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>114021</v>
+        <v>114217</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145919</v>
+        <v>145855</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5375115096624415</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4699179020923762</v>
+        <v>0.4707253232858194</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.601381293159762</v>
+        <v>0.6011161099446646</v>
       </c>
     </row>
     <row r="18">
@@ -3854,19 +3854,19 @@
         <v>49353</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38674</v>
+        <v>38706</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61661</v>
+        <v>60869</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3694001938048909</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2894640618048766</v>
+        <v>0.2897032449013995</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4615168902605275</v>
+        <v>0.4555906254126781</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -3875,19 +3875,19 @@
         <v>25068</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17777</v>
+        <v>17475</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33454</v>
+        <v>32246</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4538118577151476</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.321819011371508</v>
+        <v>0.3163601875997244</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6056394796938016</v>
+        <v>0.5837573489574228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>68</v>
@@ -3896,19 +3896,19 @@
         <v>74421</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61451</v>
+        <v>60961</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>89493</v>
+        <v>87674</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3940913202214574</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.325411249789111</v>
+        <v>0.3228185169037353</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4739060866818814</v>
+        <v>0.4642753387711576</v>
       </c>
     </row>
     <row r="20">
@@ -3925,19 +3925,19 @@
         <v>8034</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3459</v>
+        <v>3430</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15432</v>
+        <v>16322</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06013498496487103</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02588836108452505</v>
+        <v>0.02567279915787753</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1155080515461762</v>
+        <v>0.1221705791132659</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -3946,19 +3946,19 @@
         <v>7040</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2938</v>
+        <v>3064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13148</v>
+        <v>12705</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1274413386168055</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05318728033767889</v>
+        <v>0.055467638172272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2380203521258326</v>
+        <v>0.2300108541340151</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -3967,19 +3967,19 @@
         <v>15074</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8345</v>
+        <v>8632</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24096</v>
+        <v>23855</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07982266329834019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0441894857663775</v>
+        <v>0.04571210684483342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1275987048045465</v>
+        <v>0.1263247046804591</v>
       </c>
     </row>
     <row r="21">
@@ -3996,19 +3996,19 @@
         <v>5780</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2175</v>
+        <v>2067</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12986</v>
+        <v>12906</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04326146759246292</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01627746909701163</v>
+        <v>0.01547423932637039</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09719434303869999</v>
+        <v>0.0965960392673955</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10607</v>
+        <v>10260</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05721949381491742</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1920161472619594</v>
+        <v>0.1857498411162088</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -4038,19 +4038,19 @@
         <v>8941</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3336</v>
+        <v>4035</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17676</v>
+        <v>18850</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04734430844666976</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01766306619160312</v>
+        <v>0.02136662643552005</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09360261023328265</v>
+        <v>0.09981790780747538</v>
       </c>
     </row>
     <row r="22">
@@ -4067,19 +4067,19 @@
         <v>70436</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58269</v>
+        <v>58741</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82209</v>
+        <v>82407</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5272033536377752</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4361323239992672</v>
+        <v>0.4396626297632862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6153164821660333</v>
+        <v>0.6168022976953532</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4088,19 +4088,19 @@
         <v>19970</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12353</v>
+        <v>12993</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28000</v>
+        <v>28042</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3615273098531295</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2236283934004434</v>
+        <v>0.2352117037564712</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5068954003212235</v>
+        <v>0.5076655865024241</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -4109,19 +4109,19 @@
         <v>90406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76397</v>
+        <v>76213</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104452</v>
+        <v>103909</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4787417080335327</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4045591429162816</v>
+        <v>0.4035814139024179</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.553121076480846</v>
+        <v>0.5502462965111025</v>
       </c>
     </row>
     <row r="23">
@@ -4213,19 +4213,19 @@
         <v>286399</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>260457</v>
+        <v>259059</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>316172</v>
+        <v>313765</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.389452482749697</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3541761258512628</v>
+        <v>0.3522750986406638</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4299387575787571</v>
+        <v>0.4266655087036826</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>152</v>
@@ -4234,19 +4234,19 @@
         <v>157607</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>139492</v>
+        <v>139196</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>175535</v>
+        <v>177497</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4860323980420646</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4301699572564766</v>
+        <v>0.4292567437668915</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5413187254516865</v>
+        <v>0.5473719541562447</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>420</v>
@@ -4255,19 +4255,19 @@
         <v>444006</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>410423</v>
+        <v>408621</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>474708</v>
+        <v>476897</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4190074057677211</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.387315065135901</v>
+        <v>0.3856144168534038</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4479805630544791</v>
+        <v>0.450046295388518</v>
       </c>
     </row>
     <row r="25">
@@ -4284,19 +4284,19 @@
         <v>42519</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31007</v>
+        <v>30046</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58217</v>
+        <v>56474</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05781802583417511</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04216443595171908</v>
+        <v>0.04085776011152429</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07916493232407909</v>
+        <v>0.07679414059265176</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -4305,19 +4305,19 @@
         <v>21409</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12753</v>
+        <v>13136</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31978</v>
+        <v>32752</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06602040181976612</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03932933407488007</v>
+        <v>0.04050966210047394</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09861372424495161</v>
+        <v>0.1010018051310275</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -4326,19 +4326,19 @@
         <v>63927</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48456</v>
+        <v>47884</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83771</v>
+        <v>82138</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06032807764034179</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04572743584627685</v>
+        <v>0.04518805332422127</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07905414459751707</v>
+        <v>0.0775132414572815</v>
       </c>
     </row>
     <row r="26">
@@ -4355,19 +4355,19 @@
         <v>27477</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17676</v>
+        <v>18244</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>38995</v>
+        <v>40199</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03736322890075301</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0240366631265379</v>
+        <v>0.02480799625495128</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05302618524047943</v>
+        <v>0.05466353869471605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -4376,19 +4376,19 @@
         <v>11030</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5828</v>
+        <v>5474</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>20062</v>
+        <v>20400</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03401578522543958</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01797228844064012</v>
+        <v>0.0168806600250835</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06186831094049027</v>
+        <v>0.06291132523421844</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -4397,19 +4397,19 @@
         <v>38507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>26533</v>
+        <v>27401</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52971</v>
+        <v>53585</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03633886022294285</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0250392156884964</v>
+        <v>0.02585788842909199</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04998884152326163</v>
+        <v>0.05056803636392296</v>
       </c>
     </row>
     <row r="27">
@@ -4426,19 +4426,19 @@
         <v>378995</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>350440</v>
+        <v>352180</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>408010</v>
+        <v>407067</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5153662625153749</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4765364623611538</v>
+        <v>0.4789029795035261</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5548217237370342</v>
+        <v>0.553539758714117</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>133</v>
@@ -4447,19 +4447,19 @@
         <v>134226</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>116229</v>
+        <v>115054</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>152110</v>
+        <v>150510</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4139314149127297</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3584297659016601</v>
+        <v>0.3548062978078346</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4690826880787799</v>
+        <v>0.4641459633829772</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>481</v>
@@ -4468,19 +4468,19 @@
         <v>513221</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>483352</v>
+        <v>480774</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>549451</v>
+        <v>548165</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4843256563689942</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4561387065218965</v>
+        <v>0.4537050717874823</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5185160244172535</v>
+        <v>0.5173023323099196</v>
       </c>
     </row>
     <row r="28">
